--- a/Doc-RutasEntregable-Arquitectura/Rutas.xlsx
+++ b/Doc-RutasEntregable-Arquitectura/Rutas.xlsx
@@ -16,34 +16,34 @@
     <t>Estructura Linux</t>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>datamart</t>
-  </si>
-  <si>
-    <t>dataset</t>
-  </si>
-  <si>
-    <t>(archivos .csv)</t>
+    <t>home 📁</t>
+  </si>
+  <si>
+    <t>datamart 📁</t>
+  </si>
+  <si>
+    <t>dataset 📁</t>
+  </si>
+  <si>
+    <t>(archivos .csv) 📄</t>
   </si>
   <si>
     <t>DATALAKE</t>
   </si>
   <si>
-    <t>schema</t>
-  </si>
-  <si>
-    <t>(archivos avro)</t>
+    <t>schema 📁</t>
+  </si>
+  <si>
+    <t>(archivos avro) 📄</t>
   </si>
   <si>
     <t>Archivos CSV</t>
   </si>
   <si>
-    <t>script</t>
-  </si>
-  <si>
-    <t>(archivos .sql y .bat)</t>
+    <t>script 📁</t>
+  </si>
+  <si>
+    <t>(archivos .sql y .bat) 📄</t>
   </si>
   <si>
     <t>TOTAL:</t>
@@ -227,10 +227,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -248,6 +253,20 @@
   </fills>
   <borders count="13">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -302,20 +321,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -348,23 +353,27 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -841,658 +850,658 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>14.0</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="2" t="s">
+      <c r="I5" s="5"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="2" t="s">
+      <c r="L5" s="5"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="4"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="6"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="J6" s="7" t="s">
+      <c r="H6" s="8"/>
+      <c r="J6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="M6" s="7" t="s">
+      <c r="K6" s="8"/>
+      <c r="M6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="6"/>
-      <c r="P6" s="7" t="s">
+      <c r="N6" s="8"/>
+      <c r="P6" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="6"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="6"/>
-      <c r="P7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="8"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="8"/>
+      <c r="P7" s="9"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="6"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="6"/>
-      <c r="P8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="8"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="8"/>
+      <c r="P8" s="9"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="6"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="6"/>
-      <c r="P9" s="7"/>
+      <c r="H9" s="8"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="8"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="8"/>
+      <c r="P9" s="9"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="6"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="6"/>
-      <c r="P10" s="7"/>
+      <c r="H10" s="8"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="8"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="8"/>
+      <c r="P10" s="9"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="6"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="6"/>
-      <c r="P11" s="7"/>
+      <c r="H11" s="8"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="8"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="8"/>
+      <c r="P11" s="9"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="9" t="s">
+      <c r="H12" s="8"/>
+      <c r="I12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="9" t="s">
+      <c r="J12" s="9"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="9" t="s">
+      <c r="M12" s="9"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="P12" s="7"/>
+      <c r="P12" s="9"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="9" t="s">
+      <c r="H13" s="8"/>
+      <c r="I13" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="9" t="s">
+      <c r="J13" s="9"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="9" t="s">
+      <c r="M13" s="9"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="P13" s="7"/>
+      <c r="P13" s="9"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="9" t="s">
+      <c r="H14" s="8"/>
+      <c r="I14" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="9" t="s">
+      <c r="J14" s="9"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="M14" s="7"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="9" t="s">
+      <c r="M14" s="9"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="P14" s="7"/>
+      <c r="P14" s="9"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="9" t="s">
+      <c r="H15" s="8"/>
+      <c r="I15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="9" t="s">
+      <c r="J15" s="9"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="9" t="s">
+      <c r="M15" s="9"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="P15" s="7"/>
+      <c r="P15" s="9"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="9" t="s">
+      <c r="H16" s="8"/>
+      <c r="I16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="9" t="s">
+      <c r="J16" s="9"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="9" t="s">
+      <c r="M16" s="9"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="P16" s="7"/>
+      <c r="P16" s="9"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="8"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="9" t="s">
+      <c r="H17" s="8"/>
+      <c r="I17" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="9" t="s">
+      <c r="J17" s="9"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="M17" s="7"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="9" t="s">
+      <c r="M17" s="9"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="P17" s="7"/>
+      <c r="P17" s="9"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="9" t="s">
+      <c r="H18" s="8"/>
+      <c r="I18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="9" t="s">
+      <c r="J18" s="9"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="M18" s="7"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="9" t="s">
+      <c r="M18" s="9"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="P18" s="7"/>
+      <c r="P18" s="9"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="8"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="9" t="s">
+      <c r="H19" s="8"/>
+      <c r="I19" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="9" t="s">
+      <c r="J19" s="9"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="M19" s="7"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="9" t="s">
+      <c r="M19" s="9"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="P19" s="7"/>
+      <c r="P19" s="9"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11" t="s">
+      <c r="A20" s="10"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="9" t="s">
+      <c r="H20" s="8"/>
+      <c r="I20" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="9" t="s">
+      <c r="J20" s="9"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M20" s="7"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="9" t="s">
+      <c r="M20" s="9"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="P20" s="7"/>
+      <c r="P20" s="9"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="8"/>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="9" t="s">
+      <c r="H21" s="8"/>
+      <c r="I21" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="9" t="s">
+      <c r="J21" s="9"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="M21" s="7"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="9" t="s">
+      <c r="M21" s="9"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="P21" s="7"/>
+      <c r="P21" s="9"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="10"/>
+      <c r="B22" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="9" t="s">
+      <c r="H22" s="8"/>
+      <c r="I22" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="9" t="s">
+      <c r="J22" s="9"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="M22" s="7"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="9" t="s">
+      <c r="M22" s="9"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="P22" s="7"/>
+      <c r="P22" s="9"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="8"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7" t="s">
+      <c r="A23" s="10"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="9" t="s">
+      <c r="H23" s="8"/>
+      <c r="I23" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="9" t="s">
+      <c r="J23" s="9"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="M23" s="7"/>
-      <c r="O23" s="9" t="s">
+      <c r="M23" s="9"/>
+      <c r="O23" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="P23" s="7"/>
+      <c r="P23" s="9"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="8"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7" t="s">
+      <c r="A24" s="10"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="9" t="s">
+      <c r="H24" s="8"/>
+      <c r="I24" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="9" t="s">
+      <c r="J24" s="9"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="M24" s="7"/>
-      <c r="O24" s="9" t="s">
+      <c r="M24" s="9"/>
+      <c r="O24" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="P24" s="7"/>
+      <c r="P24" s="9"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="8"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7" t="s">
+      <c r="A25" s="10"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="9" t="s">
+      <c r="H25" s="8"/>
+      <c r="I25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="9" t="s">
+      <c r="J25" s="9"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="M25" s="7"/>
-      <c r="O25" s="9" t="s">
+      <c r="M25" s="9"/>
+      <c r="O25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="P25" s="7"/>
+      <c r="P25" s="9"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="8"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="7" t="s">
+      <c r="A26" s="10"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H26" s="6"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="6"/>
-      <c r="M26" s="7"/>
-      <c r="P26" s="7"/>
+      <c r="H26" s="8"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="8"/>
+      <c r="M26" s="9"/>
+      <c r="P26" s="9"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="8"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7" t="s">
+      <c r="A27" s="10"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="H27" s="6"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="6"/>
-      <c r="M27" s="7"/>
-      <c r="P27" s="7"/>
+      <c r="H27" s="8"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="8"/>
+      <c r="M27" s="9"/>
+      <c r="P27" s="9"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="8"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="7" t="s">
+      <c r="A28" s="10"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="H28" s="6"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="6"/>
-      <c r="M28" s="7"/>
-      <c r="P28" s="7"/>
+      <c r="H28" s="8"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="8"/>
+      <c r="M28" s="9"/>
+      <c r="P28" s="9"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="8"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7" t="s">
+      <c r="A29" s="10"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="H29" s="6"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="6"/>
-      <c r="M29" s="7"/>
-      <c r="P29" s="7"/>
+      <c r="H29" s="8"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="8"/>
+      <c r="M29" s="9"/>
+      <c r="P29" s="9"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="8"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="7" t="s">
+      <c r="A30" s="10"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H30" s="10"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="11"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="13"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="8"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="7" t="s">
+      <c r="A31" s="10"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="8"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="7" t="s">
+      <c r="A32" s="10"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="8"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="7" t="s">
+      <c r="A33" s="10"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="8"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="7" t="s">
+      <c r="A34" s="10"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="8"/>
-      <c r="B35" s="2" t="s">
+      <c r="A35" s="10"/>
+      <c r="B35" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="8"/>
-      <c r="B36" s="6" t="s">
+      <c r="A36" s="10"/>
+      <c r="B36" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="8"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="7" t="s">
+      <c r="A37" s="10"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="8"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="7" t="s">
+      <c r="A38" s="10"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="8"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="7" t="s">
+      <c r="A39" s="10"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="8"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="7" t="s">
+      <c r="A40" s="10"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="8"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="7" t="s">
+      <c r="A41" s="10"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="8"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="7" t="s">
+      <c r="A42" s="10"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="8"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="7" t="s">
+      <c r="A43" s="10"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="8"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="7" t="s">
+      <c r="A44" s="10"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="8"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="7" t="s">
+      <c r="A45" s="10"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="8"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="7" t="s">
+      <c r="A46" s="10"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="8"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="7" t="s">
+      <c r="A47" s="10"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="13"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="11" t="s">
+      <c r="A48" s="15"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="13" t="s">
         <v>56</v>
       </c>
     </row>
